--- a/Data Req, for Finrisk.xlsx
+++ b/Data Req, for Finrisk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemensnam-my.sharepoint.com/personal/vishnu_nair_ext_siemens_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{6E3D56BA-DFE0-4769-AC57-8E754C34FC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1440667E-602D-4162-9AF5-E372C85D4694}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{6E3D56BA-DFE0-4769-AC57-8E754C34FC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{422C331B-5B9B-4C31-881C-21791D282D41}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D0FCCE88-E8C6-4985-B8DD-2A8478849F93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>For the model, I need theses metrics in an xls or csv, in this order</t>
   </si>
@@ -84,15 +84,6 @@
   </si>
   <si>
     <t>ABDE</t>
-  </si>
-  <si>
-    <t>2.5%/2.75%/3.0%/3.25%/3.5%</t>
-  </si>
-  <si>
-    <t>2.4%/2.74%/3.0%/3.24%</t>
-  </si>
-  <si>
-    <t>2.3%/2.73%/3.0%</t>
   </si>
   <si>
     <t>$2,000,000/ $2,500,000/$3,000,000/$3,500,000/$4,000,000</t>
@@ -498,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DB1F61-51F3-4E6B-9C1F-94F7F7AC7774}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,14 +531,14 @@
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
+      <c r="C5" s="2">
+        <v>0.1004</v>
       </c>
       <c r="D5" s="1">
         <v>15000000</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -557,14 +548,14 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="C6" s="2">
+        <v>0.10539999999999999</v>
       </c>
       <c r="D6" s="1">
         <v>14000000</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -574,14 +565,14 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
+      <c r="C7" s="2">
+        <v>0.1014</v>
       </c>
       <c r="D7" s="1">
         <v>13000000</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -592,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>2.1000000000000001E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D8" s="1">
         <v>11000000</v>
@@ -608,14 +599,14 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
+      <c r="C9" s="2">
+        <v>0.1004</v>
       </c>
       <c r="D9" s="1">
         <v>15000000</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -625,14 +616,14 @@
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
+      <c r="C10" s="2">
+        <v>0.1004</v>
       </c>
       <c r="D10" s="1">
         <v>15000000</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -642,14 +633,14 @@
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
+      <c r="C11" s="2">
+        <v>0.1004</v>
       </c>
       <c r="D11" s="1">
         <v>15000000</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -659,14 +650,14 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
+      <c r="C12" s="2">
+        <v>0.1004</v>
       </c>
       <c r="D12" s="1">
         <v>15000000</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -676,14 +667,14 @@
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
+      <c r="C13" s="2">
+        <v>0.1004</v>
       </c>
       <c r="D13" s="1">
         <v>15000000</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -693,14 +684,14 @@
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
+      <c r="C14" s="2">
+        <v>0.1004</v>
       </c>
       <c r="D14" s="1">
         <v>15000000</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
